--- a/myStuff.xlsx
+++ b/myStuff.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="26220" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="26220" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Data" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
   <si>
     <t>OX1121</t>
   </si>
@@ -147,6 +147,15 @@
   <si>
     <t>Customer
 Number</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Balance</t>
   </si>
 </sst>
 </file>
@@ -208,13 +217,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -499,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F72"/>
+  <dimension ref="A3:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,15 +523,15 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -530,7 +539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -538,7 +547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -546,7 +555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -554,7 +563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -562,7 +571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -570,24 +579,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -600,9 +612,13 @@
       <c r="D13" s="1">
         <v>4600</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+      <c r="F13" s="1">
+        <f>D13*((1+(0.05/(1/12)))^((1/12) * 1))</f>
+        <v>4783.7428953763192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -615,9 +631,13 @@
       <c r="D14" s="1">
         <v>1200</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:F15" si="0">D14*((1+(0.05/(1/12)))^((1/12) * 1))</f>
+        <v>1247.9329292286052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -630,9 +650,13 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -645,12 +669,12 @@
       <c r="D16" s="1">
         <v>-5</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -663,11 +687,15 @@
       <c r="D18" s="1">
         <v>300</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <f>D18*((1+(0.06/(1/12)))^((1/12) * 1))-10</f>
+        <v>303.86914568338477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -680,9 +708,13 @@
       <c r="D19" s="1">
         <v>275.43</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19:F22" si="1">D19*((1+(0.06/(1/12)))^((1/12) * 1))-10</f>
+        <v>278.16326265191555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -695,9 +727,13 @@
       <c r="D20" s="1">
         <v>527.67999999999995</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>542.07490264736145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -710,9 +746,13 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+      <c r="F21" s="1">
+        <f>IF(D21=0,0,D21*((1+(0.06/(1/12)))^((1/12) * 1))-10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -725,12 +765,16 @@
       <c r="D22" s="1">
         <v>-23.36</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="9"/>
+      <c r="F22" s="1">
+        <f>ABS(D22)*((1+(0.06/(1/12)))^((1/12) * 1))-10</f>
+        <v>14.439944143879558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -743,11 +787,12 @@
       <c r="D24" s="1">
         <v>25</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -760,9 +805,10 @@
       <c r="D25" s="1">
         <v>145.16</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -775,9 +821,10 @@
       <c r="D26" s="1">
         <v>987.89</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -790,9 +837,10 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -805,9 +853,10 @@
       <c r="D28" s="1">
         <v>-895.32</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -820,9 +869,10 @@
       <c r="D29" s="1">
         <v>117.24</v>
       </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -833,8 +883,14 @@
         <f>D24</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -848,8 +904,11 @@
         <f>D32+D33</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -860,11 +919,14 @@
         <v>125</v>
       </c>
       <c r="E34" s="2">
-        <f>E33+D34</f>
+        <f t="shared" ref="E34:E43" si="2">E33+D34</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>1</v>
       </c>
@@ -875,11 +937,14 @@
         <v>100</v>
       </c>
       <c r="E35" s="2">
-        <f>E34+D35</f>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>1</v>
       </c>
@@ -890,11 +955,14 @@
         <v>200</v>
       </c>
       <c r="E36" s="2">
-        <f>E35+D36</f>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -905,11 +973,14 @@
         <v>175</v>
       </c>
       <c r="E37" s="2">
-        <f>E36+D37</f>
+        <f t="shared" si="2"/>
         <v>825</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>1</v>
       </c>
@@ -920,11 +991,14 @@
         <v>350.18</v>
       </c>
       <c r="E38" s="2">
-        <f>E37+D38</f>
+        <f t="shared" si="2"/>
         <v>1175.18</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -935,11 +1009,14 @@
         <v>23</v>
       </c>
       <c r="E39" s="2">
-        <f>E38+D39</f>
+        <f t="shared" si="2"/>
         <v>1198.18</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>1</v>
       </c>
@@ -950,11 +1027,14 @@
         <v>600</v>
       </c>
       <c r="E40" s="2">
-        <f>E39+D40</f>
+        <f t="shared" si="2"/>
         <v>1798.18</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -965,11 +1045,14 @@
         <v>125</v>
       </c>
       <c r="E41" s="2">
-        <f>E40+D41</f>
+        <f t="shared" si="2"/>
         <v>1923.18</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>1</v>
       </c>
@@ -980,11 +1063,14 @@
         <v>16.489999999999998</v>
       </c>
       <c r="E42" s="2">
-        <f>E41+D42</f>
+        <f t="shared" si="2"/>
         <v>1939.67</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -995,11 +1081,24 @@
         <v>42.37</v>
       </c>
       <c r="E43" s="2">
-        <f>E42+D43</f>
+        <f t="shared" si="2"/>
         <v>1982.04</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -1013,8 +1112,11 @@
         <f>E43-D46</f>
         <v>1782.04</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>1</v>
       </c>
@@ -1025,11 +1127,14 @@
         <v>325</v>
       </c>
       <c r="E47" s="2">
-        <f>E46-D47</f>
+        <f t="shared" ref="E47:E52" si="3">E46-D47</f>
         <v>1457.04</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>1</v>
       </c>
@@ -1040,11 +1145,14 @@
         <v>12.32</v>
       </c>
       <c r="E48" s="2">
-        <f>E47-D48</f>
+        <f t="shared" si="3"/>
         <v>1444.72</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>1</v>
       </c>
@@ -1055,11 +1163,14 @@
         <v>900.17</v>
       </c>
       <c r="E49" s="2">
-        <f>E48-D49</f>
+        <f t="shared" si="3"/>
         <v>544.55000000000007</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>1</v>
       </c>
@@ -1070,11 +1181,14 @@
         <v>395</v>
       </c>
       <c r="E50" s="2">
-        <f>E49-D50</f>
+        <f t="shared" si="3"/>
         <v>149.55000000000007</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>1</v>
       </c>
@@ -1085,11 +1199,14 @@
         <v>100</v>
       </c>
       <c r="E51" s="2">
-        <f>E50-D51</f>
+        <f t="shared" si="3"/>
         <v>49.550000000000068</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>1</v>
       </c>
@@ -1100,17 +1217,41 @@
         <v>25</v>
       </c>
       <c r="E52" s="2">
-        <f>E51-D52</f>
+        <f t="shared" si="3"/>
         <v>24.550000000000068</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2">
+        <f>SUM(F33:F52)</f>
+        <v>54</v>
+      </c>
+      <c r="H52" s="2">
+        <f>E52-G52</f>
+        <v>-29.449999999999932</v>
+      </c>
+      <c r="I52" s="1">
+        <v>230</v>
+      </c>
+      <c r="J52" s="2">
+        <f>H52+I52</f>
+        <v>200.55000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <f>D15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>5</v>
       </c>
@@ -1124,12 +1265,9 @@
         <f>D55+D56</f>
         <v>350.12</v>
       </c>
-      <c r="F56" s="1">
-        <f>E56*((1+(0.05/(1/12)))^((1/12)*1))</f>
-        <v>364.10523098459936</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>5</v>
       </c>
@@ -1143,12 +1281,9 @@
         <f>E56+D57</f>
         <v>602.08000000000004</v>
       </c>
-      <c r="F57" s="1">
-        <f>E57*((1+(0.05/(1/12)))^((1/12)*1))</f>
-        <v>626.12954835829885</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -1162,12 +1297,9 @@
         <f>E57+D58</f>
         <v>628.57000000000005</v>
       </c>
-      <c r="F58" s="1">
-        <f>E58*((1+(0.05/(1/12)))^((1/12)*1))</f>
-        <v>653.67766777102031</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>5</v>
       </c>
@@ -1186,13 +1318,19 @@
         <v>1692.8002196164493</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D62" s="2">
-        <f>D18</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+        <f>F18</f>
+        <v>303.86914568338477</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -1204,14 +1342,11 @@
       </c>
       <c r="E63" s="2">
         <f>D62+D63</f>
-        <v>1548.92</v>
-      </c>
-      <c r="F63" s="1">
-        <f>E63*((1+(0.06/(1/12)))^((1/12)*1))</f>
-        <v>1620.5273237730278</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1552.789145683385</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -1223,12 +1358,9 @@
       </c>
       <c r="E64" s="2">
         <f>E63+D64</f>
-        <v>1794.5500000000002</v>
-      </c>
-      <c r="F64" s="1">
-        <f>E64*((1+(0.06/(1/12)))^((1/12)*1))</f>
-        <v>1877.5129179537273</v>
-      </c>
+        <v>1798.4191456833851</v>
+      </c>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -1242,11 +1374,19 @@
       </c>
       <c r="E65" s="2">
         <f>E64+D65</f>
-        <v>2778.0200000000004</v>
+        <v>2781.8891456833853</v>
       </c>
       <c r="F65" s="1">
-        <f>E65*((1+(0.06/(1/12)))^((1/12)*1))</f>
-        <v>2906.4492136378553</v>
+        <f>E65*((1+(0.06/(1/12)))^((1/12)*1))-10</f>
+        <v>2900.4972318050841</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -1280,11 +1420,11 @@
       </c>
       <c r="E71" s="2">
         <f>E65-D71</f>
-        <v>2416.3500000000004</v>
+        <v>2420.2191456833852</v>
       </c>
       <c r="F71" s="1">
-        <f>E71*((1+(0.06/(1/12)))^((1/12)*1))</f>
-        <v>2528.0590339068231</v>
+        <f>E71*((1+(0.06/(1/12)))^((1/12)*1))-10</f>
+        <v>2522.1070520740514</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -1298,8 +1438,8 @@
         <v>200</v>
       </c>
       <c r="E72" s="2">
-        <f>IF(E52-D72&lt;0, 0, E52-D72)</f>
-        <v>0</v>
+        <f>IF(J52-D72&lt;0, 0, J52-D72)</f>
+        <v>0.55000000000006821</v>
       </c>
     </row>
   </sheetData>
